--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\hydgn\HPEbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B989B01-4C6B-4A0F-ADAA-82DECF890E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25820" windowHeight="11970"/>
+    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
     <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -164,12 +174,15 @@
   </si>
   <si>
     <t>Appendix D (biomass), Appendix H (natural gas), Appendix I (electrolysis), and Appendix J (coal)</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -262,11 +275,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,24 +560,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.7265625" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,120 +591,120 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -693,22 +712,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="F7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="1" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -728,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -748,7 +767,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -765,7 +784,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -782,7 +801,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>28</v>
@@ -800,7 +819,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -820,7 +839,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -837,7 +856,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -854,7 +873,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>30</v>
@@ -872,7 +891,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -892,7 +911,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -909,7 +928,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -926,7 +945,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>30</v>
@@ -944,8 +963,8 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -959,7 +978,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -978,23 +997,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +1059,7 @@
       <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="13">
         <v>2031</v>
       </c>
       <c r="Q1">
@@ -1101,7 +1120,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1161,229 +1180,229 @@
         <f>N2*'IEA Data'!$D$18</f>
         <v>0.72283380681818132</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <f>O2*'IEA Data'!$E$18</f>
         <v>0.7253666557451437</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="6">
         <f>P2*'IEA Data'!$E$18</f>
         <v>0.72790837991234292</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="6">
         <f>Q2*'IEA Data'!$E$18</f>
         <v>0.73045901041910288</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="6">
         <f>R2*'IEA Data'!$E$18</f>
         <v>0.73301857847372121</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="6">
         <f>S2*'IEA Data'!$E$18</f>
         <v>0.73558711539385124</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="6">
         <f>T2*'IEA Data'!$E$18</f>
         <v>0.73816465260688491</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="6">
         <f>U2*'IEA Data'!$E$18</f>
         <v>0.74075122165033747</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="6">
         <f>V2*'IEA Data'!$E$18</f>
         <v>0.74334685417223334</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="6">
         <f>W2*'IEA Data'!$E$18</f>
         <v>0.74595158193149347</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="6">
         <f>X2*'IEA Data'!$E$18</f>
         <v>0.74856543679832355</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="6">
         <f>Y2*'IEA Data'!$E$18</f>
         <v>0.7511884507546045</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="6">
         <f>Z2*'IEA Data'!$E$18</f>
         <v>0.75382065589428315</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="6">
         <f>AA2*'IEA Data'!$E$18</f>
         <v>0.7564620844237655</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="6">
         <f>AB2*'IEA Data'!$E$18</f>
         <v>0.75911276866231048</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="6">
         <f>AC2*'IEA Data'!$E$18</f>
         <v>0.76177274104242554</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="6">
         <f>AD2*'IEA Data'!$E$18</f>
         <v>0.76444203411026324</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="6">
         <f>AE2*'IEA Data'!$E$18</f>
         <v>0.76712068052601967</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="6">
         <f>AF2*'IEA Data'!$E$18</f>
         <v>0.76980871306433407</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="6">
         <f>AG2*'IEA Data'!$E$18</f>
         <v>0.77250616461468979</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="6">
         <f>AH2*'IEA Data'!$E$18</f>
         <v>0.77521306818181679</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>118/(162+2+46)</f>
-        <v>0.56190476190476191</v>
+        <f>118/(162+2)</f>
+        <v>0.71951219512195119</v>
       </c>
       <c r="C3" s="6">
         <f>B3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:O3" si="0">C3</f>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="P3" s="13">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="P3" s="12">
         <f>O3</f>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="Q3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Q3" s="6">
         <f t="shared" ref="Q3:AI3" si="1">P3</f>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="R3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="R3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="S3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="S3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="T3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="T3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="U3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="U3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="V3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="V3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="W3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="W3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="X3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="X3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="Y3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Y3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="Z3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Z3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AA3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AA3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AB3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AB3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AC3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AC3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AD3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AD3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AE3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AE3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AF3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AF3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AG3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AG3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AH3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AH3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-      <c r="AI3" s="12">
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AI3" s="6">
         <f t="shared" si="1"/>
-        <v>0.56190476190476191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+        <v>0.71951219512195119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1443,88 +1462,88 @@
         <f t="shared" si="2"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="P4" s="13">
-        <f t="shared" si="2"/>
-        <v>0.57004830917874394</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="P4" s="12">
+        <f t="shared" si="2"/>
+        <v>0.57004830917874394</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" ref="Q4:AI4" si="3">P4</f>
         <v>0.57004830917874394</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="6">
         <f t="shared" si="3"/>
         <v>0.57004830917874394</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1584,88 +1603,88 @@
         <f t="shared" si="2"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="P5" s="13">
-        <f t="shared" si="2"/>
-        <v>0.46274509803921571</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="P5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.46274509803921571</v>
+      </c>
+      <c r="Q5" s="6">
         <f t="shared" ref="Q5:AI5" si="4">P5</f>
         <v>0.46274509803921571</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="6">
         <f t="shared" si="4"/>
         <v>0.46274509803921571</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1724,83 +1743,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="P6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <f t="shared" ref="Q6:AI6" si="5">P6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>

--- a/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
+++ b/InputData/hydgn/HPEbP/Hydgn Production Eff by Pathway.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\hydgn\HPEbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\HPEbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B989B01-4C6B-4A0F-ADAA-82DECF890E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EA61C-757C-475C-B06D-DD0B50AFCBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="IEA Data" sheetId="3" r:id="rId2"/>
     <sheet name="HPEbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>HPEbP Hydrogen Production Efficiency by Pathway</t>
   </si>
@@ -176,7 +176,10 @@
     <t>Appendix D (biomass), Appendix H (natural gas), Appendix I (electrolysis), and Appendix J (coal)</t>
   </si>
   <si>
-    <t>California</t>
+    <t>electrolysis with guaranteed clean electricity</t>
+  </si>
+  <si>
+    <t>natural gas reforming with CCS</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -279,7 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,9 +563,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -572,18 +574,12 @@
     <col min="2" max="2" width="98.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="14">
-        <v>44811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,57 +587,57 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1001,10 +997,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,6 +1820,288 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B2</f>
+        <v>0.67045454545454541</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" ref="C7:AI7" si="6">C2</f>
+        <v>0.6743453210151954</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.67825867548826535</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.682194739903489</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.68615364605099072</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.69013552648569809</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.69414051453178016</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.69816874428711162</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.70222035062776267</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.70629546921251507</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.71039423648740441</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.71451678969028842</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.71866326685544257</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.72283380681818132</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.7253666557451437</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.72790837991234292</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.73045901041910288</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.73301857847372121</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.73558711539385124</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.73816465260688491</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.74075122165033747</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.74334685417223334</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.74595158193149347</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.74856543679832355</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.7511884507546045</v>
+      </c>
+      <c r="AA7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.75382065589428315</v>
+      </c>
+      <c r="AB7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.7564620844237655</v>
+      </c>
+      <c r="AC7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.75911276866231048</v>
+      </c>
+      <c r="AD7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.76177274104242554</v>
+      </c>
+      <c r="AE7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.76444203411026324</v>
+      </c>
+      <c r="AF7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.76712068052601967</v>
+      </c>
+      <c r="AG7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.76980871306433407</v>
+      </c>
+      <c r="AH7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.77250616461468979</v>
+      </c>
+      <c r="AI7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.77521306818181679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B3</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:AI8" si="7">C3</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Y8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AB8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AC8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AD8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AE8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AF8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AG8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AH8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="AI8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.71951219512195119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
